--- a/Documentation/Pen_Ball_BOM_V1.1.xlsx
+++ b/Documentation/Pen_Ball_BOM_V1.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://neilsquiresoc.sharepoint.com/sites/MMC-Team/Shared Documents/Server/3 AT Library/Published/Pen Ball/GitHub/Pen-Ball-main_2022-Feb-09/Pen-Ball-main/Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kristinam\NSS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_F39E8D9AC33276A926212CDC424DDDB739C532AB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{592FB1DF-3ED8-4342-A58E-E8CA775243CC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAC5C25-F289-449B-AAC1-99D6855647D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -106,9 +106,6 @@
     <t>https://www.homedepot.ca/product/paulin-metric-hex-nut-m4-70-16pcs/1001588036</t>
   </si>
   <si>
-    <t>M4- 0.70 X 20 Machine Screw</t>
-  </si>
-  <si>
     <t>https://www.homedepot.ca/product/paulin-pan-square-machine-screw-m4-70-x-16-12pcs/1001588009</t>
   </si>
   <si>
@@ -169,16 +166,19 @@
   <si>
     <t>Note that some printers are less accurate and M4 size hardware may not fit. It is recommended that you go to a hardware store and test different bolt sizes for the palm pen that is created</t>
   </si>
+  <si>
+    <t>M4- 0.70 X 16 Machine Screw</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -479,7 +479,7 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -491,31 +491,31 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="44" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="10" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -810,26 +810,26 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="89.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="89.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="89.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="34.5">
+    <row r="1" spans="1:12" ht="36" x14ac:dyDescent="0.65">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -843,7 +843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18.75">
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>4</v>
       </c>
@@ -863,12 +863,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.5" thickBot="1">
+    <row r="3" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1">
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
@@ -897,7 +897,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -925,12 +925,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -950,18 +950,18 @@
         <v>1.1566666666666667</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E7" s="9"/>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1">
+    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="25">
         <v>25</v>
@@ -971,35 +971,35 @@
       <c r="G8" s="21"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1">
+    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="24" t="s">
         <v>21</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>22</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="F9" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="38.450000000000003" customHeight="1">
+    <row r="10" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="30" t="s">
         <v>26</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>27</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1016,10 +1016,10 @@
       </c>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1">
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12"/>
       <c r="D11" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="20">
         <f>SUM(E10:E10)</f>
@@ -1027,9 +1027,9 @@
       </c>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1">
+    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -1043,20 +1043,20 @@
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
-      <c r="A14" t="s">
+    <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="26" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A16" s="26" t="s">
-        <v>32</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -1070,17 +1070,17 @@
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
     </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1">
+    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="27" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30">
+    <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1099,17 +1099,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="38b325e6-602c-452a-8617-173bf47082c5" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8cf100d1-0775-4feb-8634-62999c4541bc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100456CAEA290209545A9F8681F83603874" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d27786a72e09a52c769a64d5f7eeaa24">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8cf100d1-0775-4feb-8634-62999c4541bc" xmlns:ns3="38b325e6-602c-452a-8617-173bf47082c5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="03ae89856d271009074f70b56337b48d" ns2:_="" ns3:_="">
     <xsd:import namespace="8cf100d1-0775-4feb-8634-62999c4541bc"/>
@@ -1346,14 +1335,51 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="38b325e6-602c-452a-8617-173bf47082c5" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8cf100d1-0775-4feb-8634-62999c4541bc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4740145F-09D2-466B-B9A2-2798696B0ADF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4740145F-09D2-466B-B9A2-2798696B0ADF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4958292-C6C4-482B-887A-6CF9FB19AB74}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EF0C3A6-4D90-4B86-B3E2-A84975725756}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8cf100d1-0775-4feb-8634-62999c4541bc"/>
+    <ds:schemaRef ds:uri="38b325e6-602c-452a-8617-173bf47082c5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EF0C3A6-4D90-4B86-B3E2-A84975725756}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4958292-C6C4-482B-887A-6CF9FB19AB74}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="38b325e6-602c-452a-8617-173bf47082c5"/>
+    <ds:schemaRef ds:uri="8cf100d1-0775-4feb-8634-62999c4541bc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>